--- a/medicine/Enfance/Will_James/Will_James.xlsx
+++ b/medicine/Enfance/Will_James/Will_James.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Will James, de son vrai nom Ernest Nephtali Dufault, (6 juin 1892 à Saint-Nazaire-d'Acton, Québec - 3 septembre 1942) s'est surtout fait connaître comme écrivain et artiste illustrateur aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe sa jeunesse dans son village natal, commençant à dessiner dès l'âge de quatre ans sur le plancher de la cuisine familiale. À l'âge de neuf ans, il suit sa famille à Montréal, où son père achète un hôtel. Fasciné par l'Ouest américain, il part en 1907 pour la Saskatchewan, où il travaille dans des ranches. En 1911, impliqué dans une bagarre à Calgary, il s'enfuit aux États-Unis, où il travaille comme cow-boy du Montana au Nouveau-Mexique. En 1914, il est arrêté pour vol de bétail au Nevada et passe quinze mois dans le pénitencier de Carson City.
 Il est ensuite cascadeur dans des films à Hollywood, sert dans l'armée américaine, étudie le dessin à San Francisco et fréquente Charles Russell, célèbre artiste du Old West. En 1920, il épouse Miss Nevada, Alice Conradt, sans rien lui dire de sa réelle identité.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autobiographie de Will James a été partiellement traduite en français et publiée aux Éditions du Boréal, en 1989, sous le titre L'Enfance d'un cow-boy solitaire, avec une préface de Jacques Godbout.
 </t>
@@ -577,7 +593,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écrivain et cinéaste québécois Jacques Godbout a réalisé en 1988 un long métrage documentaire sous le titre Alias Will James qui relate sa vie sous l'angle du mythe américain.  
 </t>
@@ -608,7 +626,9 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur-compositeur Nelson Minville a écrit une chanson intitulée Will James pour la chanteuse Luce Dufault, qui est la petite-nièce d'Ernest Dufault.  Le journaliste canadien, Pierre Dufault est le neveu de Will James. 
 </t>
